--- a/Sorteo Estructuras.xlsx
+++ b/Sorteo Estructuras.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name=" AuxGrafBolillas " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="64">
   <si>
     <t>AuxGrafBolillaFechaSorteo</t>
   </si>
@@ -218,105 +218,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>CREATE TABLE [dbo].[AuxGrafBolillas](</t>
-  </si>
-  <si>
-    <t>[AuxGrafBolillaFechaSorteo] [datetime] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafBolillaNumero] [int] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafBolillaPosicion] [smallint] NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafBolillaGruposFav] [varchar](max) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMARY KEY CLUSTERED </t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>[AuxGrafBolillaFechaSorteo] ASC,</t>
-  </si>
-  <si>
-    <t>[AuxGrafBolillaNumero] ASC</t>
-  </si>
-  <si>
-    <t>CREATE TABLE [dbo].[AuxGrafGanadores](</t>
-  </si>
-  <si>
-    <t>[AuxGrafGanadorFechaSorteo] [datetime] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafGanadorGrupoCodigo] [decimal](10, 0) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafGanadorBolillaNumero] [int] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafGanadorGrupoNombre] [char](30) NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafGanadorTipoAdj] [char](1) NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafGanadorCuotasOferta] [int] NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafGanadorDeptoNombre] [char](30) NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafGanadorFechaSorteo] ASC,</t>
-  </si>
-  <si>
-    <t>[AuxGrafGanadorGrupoCodigo] ASC,</t>
-  </si>
-  <si>
-    <t>[AuxGrafGanadorBolillaNumero] ASC</t>
-  </si>
-  <si>
-    <t>CREATE TABLE [dbo].[AuxGrafLicitaciones](</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicFechaSorteo] [datetime] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicGrupoCodigo] [decimal](10, 0) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicBolillaNumero] [int] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicGrupoNombre] [char](30) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicBolillaPosicion] [smallint] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicTipoAdj] [char](1) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicOfertaTope] [smallint] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicOfertaLibre] [smallint] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicEstadoCodigo] [char](1) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicFechaSorteo] ASC,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicGrupoCodigo] ASC,</t>
-  </si>
-  <si>
-    <t>[AuxGrafLicBolillaNumero] ASC</t>
   </si>
 </sst>
 </file>
@@ -668,21 +569,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L401"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="K9:L12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -707,7 +610,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -718,7 +621,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -728,11 +631,8 @@
       <c r="C4">
         <v>126</v>
       </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -742,11 +642,8 @@
       <c r="C5">
         <v>340</v>
       </c>
-      <c r="L5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -756,11 +653,8 @@
       <c r="C6">
         <v>242</v>
       </c>
-      <c r="L6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -770,11 +664,8 @@
       <c r="C7">
         <v>237</v>
       </c>
-      <c r="L7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -784,11 +675,8 @@
       <c r="C8">
         <v>196</v>
       </c>
-      <c r="L8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -798,11 +686,8 @@
       <c r="C9">
         <v>207</v>
       </c>
-      <c r="K9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -815,11 +700,8 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -829,11 +711,8 @@
       <c r="C11">
         <v>211</v>
       </c>
-      <c r="L11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -843,11 +722,8 @@
       <c r="C12">
         <v>333</v>
       </c>
-      <c r="L12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -858,7 +734,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -869,7 +745,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -880,7 +756,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5151,15 +5027,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L16"/>
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -5182,7 +5058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5205,7 +5081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5228,7 +5104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5250,11 +5126,8 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5276,11 +5149,8 @@
       <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5302,11 +5172,8 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5328,11 +5195,8 @@
       <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5354,11 +5218,8 @@
       <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5380,11 +5241,8 @@
       <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5406,11 +5264,8 @@
       <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="L10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5432,11 +5287,8 @@
       <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="L11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5458,11 +5310,8 @@
       <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="K12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5484,11 +5333,8 @@
       <c r="G13" t="s">
         <v>37</v>
       </c>
-      <c r="K13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5510,11 +5356,8 @@
       <c r="G14" t="s">
         <v>38</v>
       </c>
-      <c r="L14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5536,11 +5379,8 @@
       <c r="G15" t="s">
         <v>40</v>
       </c>
-      <c r="L15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5561,9 +5401,6 @@
       </c>
       <c r="G16" t="s">
         <v>42</v>
-      </c>
-      <c r="L16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -5895,15 +5732,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -5932,7 +5769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5961,7 +5798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5990,7 +5827,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6019,7 +5856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6047,11 +5884,8 @@
       <c r="I5" t="s">
         <v>63</v>
       </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6079,11 +5913,8 @@
       <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="M6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6111,11 +5942,8 @@
       <c r="I7" t="s">
         <v>63</v>
       </c>
-      <c r="M7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6143,11 +5971,8 @@
       <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6175,11 +6000,8 @@
       <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="M9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6207,11 +6029,8 @@
       <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="M10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -6239,11 +6058,8 @@
       <c r="I11" t="s">
         <v>63</v>
       </c>
-      <c r="M11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -6271,11 +6087,8 @@
       <c r="I12" t="s">
         <v>63</v>
       </c>
-      <c r="M12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6303,11 +6116,8 @@
       <c r="I13" t="s">
         <v>63</v>
       </c>
-      <c r="M13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6335,11 +6145,8 @@
       <c r="I14" t="s">
         <v>63</v>
       </c>
-      <c r="M14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6367,11 +6174,8 @@
       <c r="I15" t="s">
         <v>27</v>
       </c>
-      <c r="L15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6399,11 +6203,8 @@
       <c r="I16" t="s">
         <v>63</v>
       </c>
-      <c r="L16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6431,11 +6232,8 @@
       <c r="I17" t="s">
         <v>63</v>
       </c>
-      <c r="M17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -6463,11 +6261,8 @@
       <c r="I18" t="s">
         <v>63</v>
       </c>
-      <c r="M18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -6495,11 +6290,8 @@
       <c r="I19" t="s">
         <v>63</v>
       </c>
-      <c r="M19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6528,7 +6320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6557,7 +6349,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6586,7 +6378,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6615,7 +6407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6644,7 +6436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6673,7 +6465,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6702,7 +6494,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6731,7 +6523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6760,7 +6552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6789,7 +6581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6818,7 +6610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -6847,7 +6639,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>

--- a/Sorteo Estructuras.xlsx
+++ b/Sorteo Estructuras.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Gonzalo_Murua\Programacion\express-websocket\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name=" AuxGrafBolillas " sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="64">
   <si>
     <t>AuxGrafBolillaFechaSorteo</t>
   </si>
@@ -223,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -367,7 +362,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -561,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,21 +566,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D400" sqref="D400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -610,7 +605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -621,7 +616,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -632,7 +627,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -643,7 +638,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -654,7 +649,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -665,7 +660,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -676,7 +671,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -687,7 +682,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -701,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -712,7 +707,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -723,7 +718,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -734,7 +729,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -745,7 +740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -756,7 +751,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -767,7 +762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -778,7 +773,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -789,7 +784,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -800,7 +795,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -814,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -825,7 +820,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -836,7 +831,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -847,7 +842,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -858,7 +853,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -869,7 +864,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -880,7 +875,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -891,7 +886,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -902,7 +897,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -913,7 +908,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -924,7 +919,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -935,7 +930,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -946,7 +941,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -957,7 +952,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -968,7 +963,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -979,7 +974,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -990,7 +985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +996,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1018,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1029,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1051,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1100,7 +1095,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1131,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1153,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1164,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1175,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1186,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1202,7 +1197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1224,7 +1219,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1230,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1241,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1263,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1279,7 +1274,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1285,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1307,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1337,7 +1332,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1343,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1354,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1365,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1387,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1398,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +1412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -1428,7 +1423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1434,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1445,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +1456,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1467,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1478,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -1494,7 +1489,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -1505,7 +1500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1511,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +1522,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1544,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -1560,7 +1555,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -1571,7 +1566,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1577,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1588,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -1604,7 +1599,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -1615,7 +1610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -1626,7 +1621,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -1637,7 +1632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -1648,7 +1643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -1681,7 +1676,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -1692,7 +1687,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +1698,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -1714,7 +1709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -1725,7 +1720,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1731,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1742,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -1758,7 +1753,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +1764,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -1780,7 +1775,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -1791,7 +1786,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -1813,7 +1808,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -1824,7 +1819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -1835,7 +1830,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1874,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -1890,7 +1885,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -1901,7 +1896,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -1912,7 +1907,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +1918,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -1934,7 +1929,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1940,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +1951,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +1962,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -1978,7 +1973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +1984,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -2000,7 +1995,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -2011,7 +2006,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2017,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -2033,7 +2028,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2039,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -2055,7 +2050,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -2066,7 +2061,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2072,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -2088,7 +2083,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -2099,7 +2094,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2105,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -2121,7 +2116,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -2132,7 +2127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -2143,7 +2138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +2149,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2160,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -2176,7 +2171,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -2187,7 +2182,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -2198,7 +2193,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2204,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -2220,7 +2215,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -2231,7 +2226,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2237,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -2253,7 +2248,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -2264,7 +2259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -2275,7 +2270,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -2286,7 +2281,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -2308,7 +2303,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +2314,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -2330,7 +2325,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -2341,7 +2336,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2347,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -2374,7 +2369,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -2385,7 +2380,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2391,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -2407,7 +2402,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -2418,7 +2413,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -2429,7 +2424,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -2451,7 +2446,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -2462,7 +2457,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -2473,7 +2468,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -2484,7 +2479,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -2495,7 +2490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -2506,7 +2501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -2517,7 +2512,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2523,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -2539,7 +2534,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -2550,7 +2545,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2556,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -2572,7 +2567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -2583,7 +2578,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -2594,7 +2589,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2611,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2622,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -2638,7 +2633,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -2649,7 +2644,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2655,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -2671,7 +2666,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -2682,7 +2677,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -2693,7 +2688,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -2704,7 +2699,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -2715,7 +2710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -2726,7 +2721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -2737,7 +2732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -2748,7 +2743,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +2754,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -2770,7 +2765,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -2781,7 +2776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -2792,7 +2787,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -2803,7 +2798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -2814,7 +2809,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -2825,7 +2820,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +2831,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -2847,7 +2842,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -2858,7 +2853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -2869,7 +2864,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -2880,7 +2875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +2886,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -2902,7 +2897,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -2913,7 +2908,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -2924,7 +2919,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2930,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -2946,7 +2941,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -2957,7 +2952,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +2963,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -2982,7 +2977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +2988,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +2999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3010,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -3026,7 +3021,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -3048,7 +3043,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -3059,7 +3054,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -3070,7 +3065,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -3081,7 +3076,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3087,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -3103,7 +3098,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -3114,7 +3109,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -3125,7 +3120,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -3136,7 +3131,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -3147,7 +3142,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3153,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -3169,7 +3164,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -3180,7 +3175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -3191,7 +3186,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -3202,7 +3197,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -3213,7 +3208,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -3224,7 +3219,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -3235,7 +3230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -3246,7 +3241,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -3257,7 +3252,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -3268,7 +3263,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -3279,7 +3274,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -3290,7 +3285,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -3301,7 +3296,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3307,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -3323,7 +3318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -3334,7 +3329,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -3345,7 +3340,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -3356,7 +3351,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -3367,7 +3362,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -3378,7 +3373,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -3389,7 +3384,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -3400,7 +3395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -3411,7 +3406,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -3422,7 +3417,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -3433,7 +3428,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -3444,7 +3439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -3455,7 +3450,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -3466,7 +3461,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -3477,7 +3472,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -3488,7 +3483,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -3499,7 +3494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -3510,7 +3505,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -3521,7 +3516,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -3532,7 +3527,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -3543,7 +3538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -3554,7 +3549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -3565,7 +3560,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -3576,7 +3571,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -3587,7 +3582,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -3598,7 +3593,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -3609,7 +3604,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -3620,7 +3615,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -3631,7 +3626,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -3642,7 +3637,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -3653,7 +3648,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -3664,7 +3659,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -3675,7 +3670,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -3686,7 +3681,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -3697,7 +3692,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -3708,7 +3703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -3719,7 +3714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -3730,7 +3725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -3741,7 +3736,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -3752,7 +3747,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -3763,7 +3758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3769,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -3785,7 +3780,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -3796,7 +3791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -3807,7 +3802,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -3818,7 +3813,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -3829,7 +3824,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -3840,7 +3835,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -3851,7 +3846,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -3862,7 +3857,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -3873,7 +3868,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -3884,7 +3879,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -3895,7 +3890,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -3906,7 +3901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -3917,7 +3912,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -3928,7 +3923,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -3939,7 +3934,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -3950,7 +3945,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -3961,7 +3956,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>4</v>
       </c>
@@ -3972,7 +3967,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -3983,7 +3978,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -3994,7 +3989,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -4005,7 +4000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -4016,7 +4011,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>4</v>
       </c>
@@ -4027,7 +4022,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -4038,7 +4033,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -4049,7 +4044,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -4060,7 +4055,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -4071,7 +4066,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -4082,7 +4077,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -4093,7 +4088,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -4104,7 +4099,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>4</v>
       </c>
@@ -4115,7 +4110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -4126,7 +4121,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>4</v>
       </c>
@@ -4137,7 +4132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -4148,7 +4143,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -4159,7 +4154,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>4</v>
       </c>
@@ -4170,7 +4165,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -4181,7 +4176,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -4192,7 +4187,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>4</v>
       </c>
@@ -4203,7 +4198,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -4214,7 +4209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -4225,7 +4220,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>4</v>
       </c>
@@ -4236,7 +4231,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>4</v>
       </c>
@@ -4247,7 +4242,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>4</v>
       </c>
@@ -4258,7 +4253,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -4269,7 +4264,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>4</v>
       </c>
@@ -4280,7 +4275,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>4</v>
       </c>
@@ -4291,7 +4286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>4</v>
       </c>
@@ -4302,7 +4297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>4</v>
       </c>
@@ -4313,7 +4308,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>4</v>
       </c>
@@ -4324,7 +4319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>4</v>
       </c>
@@ -4335,7 +4330,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>4</v>
       </c>
@@ -4346,7 +4341,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -4357,7 +4352,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>4</v>
       </c>
@@ -4368,7 +4363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -4379,7 +4374,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>4</v>
       </c>
@@ -4390,7 +4385,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>4</v>
       </c>
@@ -4401,7 +4396,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>4</v>
       </c>
@@ -4412,7 +4407,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>4</v>
       </c>
@@ -4423,7 +4418,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>4</v>
       </c>
@@ -4434,7 +4429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -4448,7 +4443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -4459,7 +4454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -4470,7 +4465,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -4481,7 +4476,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -4492,7 +4487,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -4503,7 +4498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -4514,7 +4509,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -4525,7 +4520,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -4536,7 +4531,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -4547,7 +4542,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -4558,7 +4553,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -4569,7 +4564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -4580,7 +4575,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -4591,7 +4586,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -4602,7 +4597,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -4613,7 +4608,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -4624,7 +4619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -4635,7 +4630,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -4646,7 +4641,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -4657,7 +4652,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -4668,7 +4663,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -4679,7 +4674,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -4690,7 +4685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -4701,7 +4696,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -4712,7 +4707,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -4723,7 +4718,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -4734,7 +4729,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -4745,7 +4740,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -4756,7 +4751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -4767,7 +4762,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>4</v>
       </c>
@@ -4778,7 +4773,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -4789,7 +4784,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -4800,7 +4795,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -4811,7 +4806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>4</v>
       </c>
@@ -4822,7 +4817,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>4</v>
       </c>
@@ -4833,7 +4828,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -4844,7 +4839,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -4855,7 +4850,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -4866,7 +4861,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -4877,7 +4872,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -4888,7 +4883,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -4899,7 +4894,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -4910,7 +4905,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -4921,7 +4916,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -4932,7 +4927,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -4943,7 +4938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -4954,7 +4949,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>4</v>
       </c>
@@ -4965,7 +4960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>4</v>
       </c>
@@ -4976,7 +4971,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>4</v>
       </c>
@@ -4987,7 +4982,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>4</v>
       </c>
@@ -4998,7 +4993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -5008,8 +5003,11 @@
       <c r="C400">
         <v>331</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -5033,9 +5031,9 @@
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -5058,7 +5056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5081,7 +5079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5104,7 +5102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5127,7 +5125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5150,7 +5148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5173,7 +5171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5196,7 +5194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5219,7 +5217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5242,7 +5240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5265,7 +5263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5288,7 +5286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5311,7 +5309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5334,7 +5332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5357,7 +5355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5380,7 +5378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5401,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5426,7 +5424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5449,7 +5447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5472,7 +5470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -5495,7 +5493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -5541,7 +5539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -5564,7 +5562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -5587,7 +5585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -5610,7 +5608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -5633,7 +5631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -5656,7 +5654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -5679,7 +5677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -5702,7 +5700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -5738,9 +5736,9 @@
       <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -5769,7 +5767,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5798,7 +5796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5827,7 +5825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5856,7 +5854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5885,7 +5883,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5914,7 +5912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5943,7 +5941,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5972,7 +5970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6001,7 +5999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6030,7 +6028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -6059,7 +6057,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -6088,7 +6086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6117,7 +6115,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6146,7 +6144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6175,7 +6173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6204,7 +6202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6233,7 +6231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -6262,7 +6260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -6291,7 +6289,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6320,7 +6318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6349,7 +6347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6378,7 +6376,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6407,7 +6405,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6436,7 +6434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6465,7 +6463,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6494,7 +6492,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6523,7 +6521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6552,7 +6550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6581,7 +6579,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6610,7 +6608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -6639,7 +6637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -6668,7 +6666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -6697,7 +6695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -6726,7 +6724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -6755,7 +6753,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -6784,7 +6782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -6813,7 +6811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -6842,7 +6840,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -6871,7 +6869,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -6900,7 +6898,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -6929,7 +6927,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -6958,7 +6956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -6987,7 +6985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -7016,7 +7014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -7045,7 +7043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -7074,7 +7072,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -7103,7 +7101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -7132,7 +7130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -7161,7 +7159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -7190,7 +7188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -7219,7 +7217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>

--- a/Sorteo Estructuras.xlsx
+++ b/Sorteo Estructuras.xlsx
@@ -11,7 +11,7 @@
     <sheet name="AuxGrafGanadores" sheetId="2" r:id="rId2"/>
     <sheet name="AuxGrafLicitaciones" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -556,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D400" sqref="D400"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B401" sqref="B401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5027,11 +5027,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
